--- a/Field_Data/Field_Data.xlsx
+++ b/Field_Data/Field_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11268"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="25">
   <si>
     <t>Plot</t>
   </si>
@@ -422,23 +422,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,394 +470,2164 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="D2">
-        <v>28.5</v>
-      </c>
-      <c r="E2">
-        <v>-6.7</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.3972222222222222</v>
-      </c>
-      <c r="D3">
-        <v>28.6</v>
-      </c>
-      <c r="E3">
-        <v>-6.2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.40069444444444402</v>
-      </c>
-      <c r="D4">
-        <v>27.7</v>
-      </c>
-      <c r="E4">
-        <v>-6.2</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.40416666666666701</v>
-      </c>
-      <c r="D5">
-        <v>29.9</v>
-      </c>
-      <c r="E5">
-        <v>-6</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.40763888888888899</v>
-      </c>
-      <c r="D6">
-        <v>28.8</v>
-      </c>
-      <c r="E6">
-        <v>-6.7</v>
-      </c>
-      <c r="F6">
-        <v>-6.5</v>
-      </c>
-      <c r="G6">
-        <v>-6.5</v>
-      </c>
-      <c r="H6">
-        <v>-6.8</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.41111111111111098</v>
-      </c>
-      <c r="D7">
-        <v>28.8</v>
-      </c>
-      <c r="E7">
-        <v>-6.5</v>
-      </c>
-      <c r="F7">
-        <v>-7</v>
-      </c>
-      <c r="G7">
-        <v>-6.5</v>
-      </c>
-      <c r="H7">
-        <v>-6.8</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.41458333333333303</v>
-      </c>
-      <c r="D8">
-        <v>28.4</v>
-      </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.41805555555555601</v>
-      </c>
-      <c r="D9">
-        <v>29.9</v>
-      </c>
-      <c r="E9">
-        <v>-6.7</v>
-      </c>
-      <c r="F9">
-        <v>-6.5</v>
-      </c>
-      <c r="G9">
-        <v>-7</v>
-      </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.421527777777778</v>
-      </c>
-      <c r="D10">
-        <v>29.7</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D11">
-        <v>29.5</v>
-      </c>
-      <c r="E11">
-        <v>-6</v>
-      </c>
-      <c r="F11">
-        <v>-6.2</v>
-      </c>
-      <c r="G11">
-        <v>-6.2</v>
-      </c>
-      <c r="H11">
-        <v>-6.4</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="D12">
-        <v>29.6</v>
-      </c>
-      <c r="E12">
-        <v>-5.8</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D13">
-        <v>28.2</v>
-      </c>
-      <c r="E13">
-        <v>-7</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.44305555555555598</v>
-      </c>
-      <c r="D14">
-        <v>26.5</v>
-      </c>
-      <c r="E14">
-        <v>-8</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>45835</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.44652777777777802</v>
-      </c>
-      <c r="D15">
-        <v>26.3</v>
-      </c>
-      <c r="E15">
-        <v>-7.3</v>
-      </c>
-      <c r="F15">
-        <v>-9.5</v>
-      </c>
-      <c r="G15">
-        <v>-9.5</v>
-      </c>
-      <c r="H15">
-        <v>-9</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D32">
+        <v>31.5</v>
+      </c>
+      <c r="E32">
+        <v>-5</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="D33">
+        <v>29.1</v>
+      </c>
+      <c r="E33">
+        <v>-5</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="D34">
+        <v>31.2</v>
+      </c>
+      <c r="E34">
+        <v>-5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>-5.3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.41111111111111098</v>
+      </c>
+      <c r="D36">
+        <v>29.9</v>
+      </c>
+      <c r="E36">
+        <v>-5</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.41458333333333403</v>
+      </c>
+      <c r="D37">
+        <v>31.3</v>
+      </c>
+      <c r="E37">
+        <v>-5</v>
+      </c>
+      <c r="F37">
+        <v>-5.5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D38">
+        <v>29.7</v>
+      </c>
+      <c r="E38">
+        <v>-5.5</v>
+      </c>
+      <c r="F38">
+        <v>-5.5</v>
+      </c>
+      <c r="G38">
+        <v>-5.5</v>
+      </c>
+      <c r="H38">
+        <v>-5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="D39">
+        <v>29.5</v>
+      </c>
+      <c r="E39">
+        <v>-5.5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.42569444444444399</v>
+      </c>
+      <c r="D40">
+        <v>29.3</v>
+      </c>
+      <c r="E40">
+        <v>-6</v>
+      </c>
+      <c r="F40">
+        <v>-6</v>
+      </c>
+      <c r="G40">
+        <v>-6</v>
+      </c>
+      <c r="H40">
+        <v>-5.5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.42916666666666697</v>
+      </c>
+      <c r="D41">
+        <v>29.7</v>
+      </c>
+      <c r="E41">
+        <v>-5</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D42">
+        <v>31.7</v>
+      </c>
+      <c r="E42">
+        <v>-5.5</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="D43">
+        <v>29.3</v>
+      </c>
+      <c r="E43">
+        <v>-6</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.44027777777777799</v>
+      </c>
+      <c r="D44">
+        <v>29.5</v>
+      </c>
+      <c r="E44">
+        <v>-6</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="D45">
+        <v>29.7</v>
+      </c>
+      <c r="E45">
+        <v>-6.5</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.44722222222222202</v>
+      </c>
+      <c r="D46">
+        <v>30.2</v>
+      </c>
+      <c r="E46">
+        <v>-6</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
         <v>45835</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C47" s="1">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D47">
+        <v>28.5</v>
+      </c>
+      <c r="E47">
+        <v>-6.7</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D48">
+        <v>28.6</v>
+      </c>
+      <c r="E48">
+        <v>-6.2</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.40069444444444402</v>
+      </c>
+      <c r="D49">
+        <v>27.7</v>
+      </c>
+      <c r="E49">
+        <v>-6.2</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="D50">
+        <v>29.9</v>
+      </c>
+      <c r="E50">
+        <v>-6</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.40763888888888899</v>
+      </c>
+      <c r="D51">
+        <v>28.8</v>
+      </c>
+      <c r="E51">
+        <v>-6.7</v>
+      </c>
+      <c r="F51">
+        <v>-6.5</v>
+      </c>
+      <c r="G51">
+        <v>-6.5</v>
+      </c>
+      <c r="H51">
+        <v>-6.8</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.41111111111111098</v>
+      </c>
+      <c r="D52">
+        <v>28.8</v>
+      </c>
+      <c r="E52">
+        <v>-6.5</v>
+      </c>
+      <c r="F52">
+        <v>-7</v>
+      </c>
+      <c r="G52">
+        <v>-6.5</v>
+      </c>
+      <c r="H52">
+        <v>-6.8</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.41458333333333303</v>
+      </c>
+      <c r="D53">
+        <v>28.4</v>
+      </c>
+      <c r="E53">
+        <v>-7</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.41805555555555601</v>
+      </c>
+      <c r="D54">
+        <v>29.9</v>
+      </c>
+      <c r="E54">
+        <v>-6.7</v>
+      </c>
+      <c r="F54">
+        <v>-6.5</v>
+      </c>
+      <c r="G54">
+        <v>-7</v>
+      </c>
+      <c r="H54">
+        <v>-7</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.421527777777778</v>
+      </c>
+      <c r="D55">
+        <v>29.7</v>
+      </c>
+      <c r="E55">
+        <v>-7</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D56">
+        <v>29.5</v>
+      </c>
+      <c r="E56">
+        <v>-6</v>
+      </c>
+      <c r="F56">
+        <v>-6.2</v>
+      </c>
+      <c r="G56">
+        <v>-6.2</v>
+      </c>
+      <c r="H56">
+        <v>-6.4</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="D57">
+        <v>29.6</v>
+      </c>
+      <c r="E57">
+        <v>-5.8</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D58">
+        <v>28.2</v>
+      </c>
+      <c r="E58">
+        <v>-7</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.44305555555555598</v>
+      </c>
+      <c r="D59">
+        <v>26.5</v>
+      </c>
+      <c r="E59">
+        <v>-8</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.44652777777777802</v>
+      </c>
+      <c r="D60">
+        <v>26.3</v>
+      </c>
+      <c r="E60">
+        <v>-7.3</v>
+      </c>
+      <c r="F60">
+        <v>-9.5</v>
+      </c>
+      <c r="G60">
+        <v>-9.5</v>
+      </c>
+      <c r="H60">
+        <v>-9</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C61" s="1">
         <v>0.45</v>
       </c>
-      <c r="D16">
+      <c r="D61">
         <v>27.4</v>
       </c>
-      <c r="E16">
+      <c r="E61">
         <v>-6.8</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>-6.5</v>
+      </c>
+      <c r="F62">
+        <v>-6.5</v>
+      </c>
+      <c r="G62">
+        <v>-6.5</v>
+      </c>
+      <c r="H62">
+        <v>-6.5</v>
+      </c>
+      <c r="I62">
+        <v>1.5</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>-6.5</v>
+      </c>
+      <c r="F63">
+        <v>-6.8</v>
+      </c>
+      <c r="I63">
+        <v>1.5</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.41736111111111102</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>-7</v>
+      </c>
+      <c r="F64">
+        <v>-6.5</v>
+      </c>
+      <c r="G64">
+        <v>-7</v>
+      </c>
+      <c r="H64">
+        <v>-6.8</v>
+      </c>
+      <c r="I64">
+        <v>1.5</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.420833333333333</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>-6.2</v>
+      </c>
+      <c r="F65">
+        <v>-6.5</v>
+      </c>
+      <c r="G65">
+        <v>-6.5</v>
+      </c>
+      <c r="H65">
+        <v>-6.5</v>
+      </c>
+      <c r="I65">
+        <v>1.5</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.42430555555555599</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>-6</v>
+      </c>
+      <c r="I66">
+        <v>1.5</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>-7</v>
+      </c>
+      <c r="I67">
+        <v>1.5</v>
+      </c>
+      <c r="J67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="D68">
+        <v>25.2</v>
+      </c>
+      <c r="E68">
+        <v>-7</v>
+      </c>
+      <c r="I68">
+        <v>1.5</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.43541666666666701</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69">
+        <v>-7</v>
+      </c>
+      <c r="I69">
+        <v>1.5</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.43888888888888899</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>-7</v>
+      </c>
+      <c r="I70">
+        <v>1.5</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.44236111111111098</v>
+      </c>
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="E71">
+        <v>-6.2</v>
+      </c>
+      <c r="I71">
+        <v>1.5</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D72">
+        <v>27.2</v>
+      </c>
+      <c r="E72">
+        <v>-7</v>
+      </c>
+      <c r="I72">
+        <v>1.5</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D73">
+        <v>24.7</v>
+      </c>
+      <c r="E73">
+        <v>-7.5</v>
+      </c>
+      <c r="F73">
+        <v>-7</v>
+      </c>
+      <c r="G73">
+        <v>-7.5</v>
+      </c>
+      <c r="H73">
+        <v>-7.5</v>
+      </c>
+      <c r="I73">
+        <v>1.5</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.453472222222222</v>
+      </c>
+      <c r="D74">
+        <v>24.1</v>
+      </c>
+      <c r="E74">
+        <v>-7.5</v>
+      </c>
+      <c r="I74">
+        <v>1.5</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.45694444444444399</v>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>-7.5</v>
+      </c>
+      <c r="F75">
+        <v>-7</v>
+      </c>
+      <c r="I75">
+        <v>1.5</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.46041666666666697</v>
+      </c>
+      <c r="D76">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>-7.5</v>
+      </c>
+      <c r="I76">
+        <v>1.5</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D77">
+        <v>28.5</v>
+      </c>
+      <c r="E77">
+        <v>-7.7</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D78">
+        <v>28.3</v>
+      </c>
+      <c r="E78">
+        <v>-7.3</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.40069444444444402</v>
+      </c>
+      <c r="D79">
+        <v>28.9</v>
+      </c>
+      <c r="E79">
+        <v>-7</v>
+      </c>
+      <c r="F79">
+        <v>-7.1</v>
+      </c>
+      <c r="G79">
+        <v>-7.4</v>
+      </c>
+      <c r="H79">
+        <v>-7.2</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="D80">
+        <v>29.3</v>
+      </c>
+      <c r="E80">
+        <v>-7.3</v>
+      </c>
+      <c r="F80">
+        <v>-7.7</v>
+      </c>
+      <c r="G80">
+        <v>-7</v>
+      </c>
+      <c r="H80">
+        <v>-7.3</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D81">
+        <v>29.5</v>
+      </c>
+      <c r="E81">
+        <v>-7.2</v>
+      </c>
+      <c r="F81">
+        <v>-7.5</v>
+      </c>
+      <c r="G81">
+        <v>-7.5</v>
+      </c>
+      <c r="H81">
+        <v>-7.8</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="D82">
+        <v>28.7</v>
+      </c>
+      <c r="E82">
+        <v>-7.5</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.41527777777777802</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>-8</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D84">
+        <v>29.1</v>
+      </c>
+      <c r="E84">
+        <v>-7.5</v>
+      </c>
+      <c r="F84">
+        <v>-7.8</v>
+      </c>
+      <c r="G84">
+        <v>-8.1</v>
+      </c>
+      <c r="H84">
+        <v>-7.8</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="D85">
+        <v>28.9</v>
+      </c>
+      <c r="E85">
+        <v>-7.8</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="D86">
+        <v>29.5</v>
+      </c>
+      <c r="E86">
+        <v>-7.5</v>
+      </c>
+      <c r="F86">
+        <v>-7.3</v>
+      </c>
+      <c r="G86">
+        <v>-7.5</v>
+      </c>
+      <c r="H86">
+        <v>-7.2</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="D87">
+        <v>29.3</v>
+      </c>
+      <c r="E87">
+        <v>-11.3</v>
+      </c>
+      <c r="F87">
+        <v>-7.2</v>
+      </c>
+      <c r="G87">
+        <v>-7</v>
+      </c>
+      <c r="H87">
+        <v>-7</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.43541666666666701</v>
+      </c>
+      <c r="D88">
+        <v>28.5</v>
+      </c>
+      <c r="E88">
+        <v>-8</v>
+      </c>
+      <c r="F88">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="G88">
+        <v>-7</v>
+      </c>
+      <c r="H88">
+        <v>-8</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.43888888888888899</v>
+      </c>
+      <c r="D89">
+        <v>28.6</v>
+      </c>
+      <c r="E89">
+        <v>-8.9</v>
+      </c>
+      <c r="F89">
+        <v>-10.8</v>
+      </c>
+      <c r="G89">
+        <v>-10.7</v>
+      </c>
+      <c r="H89">
+        <v>-12</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.44236111111111098</v>
+      </c>
+      <c r="D90">
+        <v>29.2</v>
+      </c>
+      <c r="E90">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45849</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.44583333333333403</v>
+      </c>
+      <c r="D91">
+        <v>29.1</v>
+      </c>
+      <c r="E91">
+        <v>-8</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45873</v>
       </c>
     </row>
   </sheetData>

--- a/Field_Data/Field_Data.xlsx
+++ b/Field_Data/Field_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11268"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,21 +424,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -478,7 +478,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -486,7 +486,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -494,7 +494,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -502,7 +502,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -510,7 +510,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -518,7 +518,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -526,7 +526,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -534,7 +534,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -542,7 +542,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -550,7 +550,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -558,7 +558,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -566,7 +566,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -574,7 +574,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -582,7 +582,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -590,7 +590,7 @@
         <v>45810</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -598,7 +598,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -606,7 +606,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -614,7 +614,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -622,7 +622,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -630,7 +630,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -646,7 +646,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -654,7 +654,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -662,7 +662,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -678,7 +678,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -686,7 +686,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -694,7 +694,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -702,7 +702,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -710,7 +710,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -756,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -779,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>45849</v>
       </c>
       <c r="C85" s="1">
-        <v>0.422222222222222</v>
+        <v>0.42291666666666666</v>
       </c>
       <c r="D85">
         <v>28.9</v>
@@ -2093,10 +2093,10 @@
         <v>2</v>
       </c>
       <c r="J85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>45856</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>45863</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>21</v>
       </c>
